--- a/result/TrailATR/summary_NIKKEI_M5_2020-2024_5.xlsx
+++ b/result/TrailATR/summary_NIKKEI_M5_2020-2024_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,10 +532,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -554,45 +554,177 @@
         <v>2024</v>
       </c>
       <c r="G2" t="n">
+        <v>65</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>90</v>
+      </c>
+      <c r="J2" t="n">
+        <v>450</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1832</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-5275</v>
+      </c>
+      <c r="M2" t="n">
+        <v>16272</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7107</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-1135</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2317</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.4367625368731564</v>
+      </c>
+      <c r="R2" t="n">
+        <v>82.69702157648179</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.1684488692232055</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I3" t="n">
         <v>70</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J3" t="n">
+        <v>250</v>
+      </c>
+      <c r="K3" t="n">
+        <v>18</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-2824</v>
+      </c>
+      <c r="M3" t="n">
+        <v>20193</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2842</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-827</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2208</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.1407418412321101</v>
+      </c>
+      <c r="R3" t="n">
+        <v>73.6443253371887</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-11</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.1890754221760016</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G4" t="n">
+        <v>70</v>
+      </c>
+      <c r="H4" t="n">
         <v>2.2</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I4" t="n">
         <v>95</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J4" t="n">
         <v>400</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K4" t="n">
         <v>-7209</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L4" t="n">
         <v>-7262</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M4" t="n">
         <v>17366</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N4" t="n">
         <v>53</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O4" t="n">
         <v>-827</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P4" t="n">
         <v>2415</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q4" t="n">
         <v>0.003051940573534493</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R4" t="n">
         <v>80.02970082309655</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S4" t="n">
         <v>-12</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T4" t="n">
         <v>0.176897385696188</v>
       </c>
     </row>
